--- a/Data/biggs_enhanced_table3.xlsx
+++ b/Data/biggs_enhanced_table3.xlsx
@@ -13,15 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Storm Start</t>
   </si>
@@ -56,9 +54,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Average:</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -144,13 +139,25 @@
   </si>
   <si>
     <t>Village surfaces alone accounts for</t>
+  </si>
+  <si>
+    <t>^ where does 9.56 come from???</t>
+  </si>
+  <si>
+    <t>% of the TOTAL watershed area</t>
+  </si>
+  <si>
+    <t>from High Intensity developed and Developed Open Space in Land cover table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +170,13 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -243,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -265,6 +279,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,16 +589,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K42"/>
+  <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="6" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -872,7 +893,7 @@
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -892,8 +913,9 @@
         <f>G16</f>
         <v>28.68</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>11</v>
+      <c r="H11" s="4">
+        <f>H16</f>
+        <v>94.27000000000001</v>
       </c>
       <c r="I11" s="4">
         <v>19</v>
@@ -907,7 +929,7 @@
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -923,7 +945,10 @@
         <f>G20</f>
         <v>47.02</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="4">
+        <f>H20</f>
+        <v>52.96</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -954,7 +979,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <f>SUM(E3:E10)</f>
@@ -973,9 +998,9 @@
         <v>94.27000000000001</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0.9</v>
@@ -993,9 +1018,9 @@
         <v>1.7800000000000002</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="7">
         <f>ROUND(E16/E18,2)</f>
@@ -1009,244 +1034,275 @@
         <f>ROUND(G16/G18,2)</f>
         <v>47.02</v>
       </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="7">
+        <f>ROUND(H16/H18,2)</f>
+        <v>52.96</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="7">
         <f>E20/$E20</f>
         <v>1</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="9">
         <f>F20/$E20</f>
         <v>9.1688111168296444</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="9">
         <f>G20/$E20</f>
         <v>2.4199691199176532</v>
       </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="9">
+        <f>H20/$E20</f>
+        <v>2.7256819351518273</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F22">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G22">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <f>0.02/F18</f>
-        <v>7.4074074074074098E-2</v>
-      </c>
-      <c r="G22">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="E23" s="10">
+        <f>$E20*(1-E22)*E18</f>
+        <v>17.417052000000002</v>
+      </c>
+      <c r="F23" s="10">
+        <f>$E20*(1-F22)*F18</f>
+        <v>4.9051034999999983</v>
+      </c>
+      <c r="G23" s="10">
+        <f>$E20*(1-G22)*G18</f>
+        <v>11.271537300000004</v>
+      </c>
+      <c r="H23" s="10">
+        <f>$E20*(1-H22)*H18</f>
+        <v>32.233592800000004</v>
+      </c>
+      <c r="I23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="E23">
-        <f>$E20*(1-E22)*E18</f>
-        <v>17.487000000000002</v>
-      </c>
-      <c r="F23">
-        <f>$E20*(1-F22)*F18</f>
-        <v>4.8574999999999982</v>
-      </c>
-      <c r="G23">
-        <f>$E20*(1-G22)*G18</f>
-        <v>11.081900500000003</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="E24" s="10">
+        <f>E16-E23</f>
+        <v>7.2948000000000235E-2</v>
+      </c>
+      <c r="F24" s="10">
+        <f>F16-F23</f>
+        <v>43.194896500000013</v>
+      </c>
+      <c r="G24" s="10">
+        <f>G16-G23</f>
+        <v>17.408462699999994</v>
+      </c>
+      <c r="H24" s="10">
+        <f>H16-H23</f>
+        <v>62.036407200000006</v>
+      </c>
+      <c r="I24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="11">
+        <f>E24/(E22*E18)</f>
+        <v>20.263333333333396</v>
+      </c>
+      <c r="F25" s="11">
+        <f>F24/(F22*F18)</f>
+        <v>2461.2476638176649</v>
+      </c>
+      <c r="G25" s="11">
+        <f>G24/(G22*G18)</f>
+        <v>582.41762127801906</v>
+      </c>
+      <c r="H25" s="11">
+        <f>H24/(H22*H18)</f>
+        <v>512.52814937210837</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="10">
+        <f>E24/E16</f>
+        <v>4.1708404802744551E-3</v>
+      </c>
+      <c r="F27" s="10">
+        <f>F24/F16</f>
+        <v>0.89802279625779635</v>
+      </c>
+      <c r="G27" s="10">
+        <f>G24/G16</f>
+        <v>0.60698963389121319</v>
+      </c>
+      <c r="H27" s="10">
+        <f>H24/H16</f>
+        <v>0.65807157314097808</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="10">
+        <f>F25/E20</f>
+        <v>126.67255089128487</v>
+      </c>
+      <c r="G29" s="10">
+        <f>G25/E20</f>
+        <v>29.975173508904739</v>
+      </c>
+      <c r="H29" s="10">
+        <f>H25/F20</f>
+        <v>2.8769472319512115</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>17</v>
-      </c>
-      <c r="E24">
-        <f>E16-E23</f>
-        <v>3.0000000000001137E-3</v>
-      </c>
-      <c r="F24">
-        <f>F16-F23</f>
-        <v>43.242500000000007</v>
-      </c>
-      <c r="G24">
-        <f>G16-G23</f>
-        <v>17.598099499999996</v>
-      </c>
-      <c r="H24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7">
-        <f>F24/(F22*F18)</f>
-        <v>2162.1250000000005</v>
-      </c>
-      <c r="G25" s="7">
-        <f>G24/(G22*G18)</f>
-        <v>443.83605296342978</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27">
-        <f>E24/E16</f>
-        <v>1.7152658662093274E-4</v>
-      </c>
-      <c r="F27">
-        <f>F24/F16</f>
-        <v>0.89901247401247397</v>
-      </c>
-      <c r="G27">
-        <f>G24/G16</f>
-        <v>0.61360179567642947</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29">
-        <f>F25/E20</f>
-        <v>111.27766340710244</v>
-      </c>
-      <c r="G29">
-        <f>G25/E20</f>
-        <v>22.842823106712803</v>
-      </c>
-      <c r="H29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="10">
+        <f>100*F24/H16</f>
+        <v>45.820405749443097</v>
+      </c>
+      <c r="G33" t="s">
         <v>19</v>
-      </c>
-      <c r="F33">
-        <f>100*F24/H16</f>
-        <v>45.870902726211952</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34">
+        <v>20</v>
+      </c>
+      <c r="E34" s="10">
         <f>100*0.02/9.56</f>
         <v>0.20920502092050208</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36">
-        <f>100*G24/H16</f>
-        <v>18.667762278561572</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
+      <c r="E36" s="13">
+        <f>0.02/1.78 * 100</f>
+        <v>1.1235955056179776</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="10">
+        <f>100*G24/H16</f>
+        <v>18.466598811923191</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F38" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="8">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="H38" t="s">
         <v>35</v>
       </c>
-      <c r="H37" t="s">
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="7" t="s">
+      <c r="F41" s="11">
+        <f>G24+F24</f>
+        <v>60.603359200000007</v>
+      </c>
+      <c r="G41" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="7">
-        <f>G24+F24</f>
-        <v>60.840599500000003</v>
-      </c>
-      <c r="G40" t="s">
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="11">
+        <f>100*F41/H16</f>
+        <v>64.287004561366288</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E43" s="7" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F41" s="7">
-        <f>100*F40/H16</f>
-        <v>64.53866500477352</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E42" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>